--- a/biology/Médecine/Santé_Magazine/Santé_Magazine.xlsx
+++ b/biology/Médecine/Santé_Magazine/Santé_Magazine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_Magazine</t>
+          <t>Santé_Magazine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Santé Magazine est un magazine mensuel féminin français fondé en France en janvier 1976 par André Giovanni[2]. Le titre est édité par Uni-Éditions, filiale de presse du groupe Crédit Agricole. Santé Magazine est un des titres leaders de la presse santé en France, en audience et en diffusion[3],[4].
+Santé Magazine est un magazine mensuel féminin français fondé en France en janvier 1976 par André Giovanni. Le titre est édité par Uni-Éditions, filiale de presse du groupe Crédit Agricole. Santé Magazine est un des titres leaders de la presse santé en France, en audience et en diffusion,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_Magazine</t>
+          <t>Santé_Magazine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Giovanni a créé Santé Magazine en 1976[5].
-André Giovanni, actionnaire et fondateur du titre pendant 31 ans, le cède en septembre 2007 à Uni-Éditions[6], un groupe de presse éditant à cette époque 5 autres magazines[7],[5].
-En 2014, le magazine lance son prix Beauté Santé, récompensant les produits cosmétiques les plus efficaces, sûrs et respectueux de l’environnement[8],[9].
-Une nouvelle formule du magazine est lancée en 2022[10]. En 2023, Santé Magazine lance le Prix Bien Manger qui récompense des produits répondant à des critères nutritifs, durables, environnementaux et de bien-être animal[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Giovanni a créé Santé Magazine en 1976.
+André Giovanni, actionnaire et fondateur du titre pendant 31 ans, le cède en septembre 2007 à Uni-Éditions, un groupe de presse éditant à cette époque 5 autres magazines,.
+En 2014, le magazine lance son prix Beauté Santé, récompensant les produits cosmétiques les plus efficaces, sûrs et respectueux de l’environnement,.
+Une nouvelle formule du magazine est lancée en 2022. En 2023, Santé Magazine lance le Prix Bien Manger qui récompense des produits répondant à des critères nutritifs, durables, environnementaux et de bien-être animal.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_Magazine</t>
+          <t>Santé_Magazine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,11 +560,13 @@
           <t>Ligne éditoriale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Santé Magazine informe ses lecteurs sur les actualités liés au monde de la santé.
-Depuis son rachat par Uni-Éditions, Santé Magazine a fait l’objet de deux nouvelles formules menées par Aline Perraudin, directrice de la rédaction, dont la dernière, en janvier 2012, aborde la santé sous tous ses aspects[12].
-En octobre 2020 est publié le magazine Naturissime[13], déclinaison trimestrielle de Santé Magazine, consacré à la santé, au bien-être, à l’écologie et à la nature[14]. La même année le magazine lance son podcast Hypercondriaque sur les grands débats de santé publique[15].
+Depuis son rachat par Uni-Éditions, Santé Magazine a fait l’objet de deux nouvelles formules menées par Aline Perraudin, directrice de la rédaction, dont la dernière, en janvier 2012, aborde la santé sous tous ses aspects.
+En octobre 2020 est publié le magazine Naturissime, déclinaison trimestrielle de Santé Magazine, consacré à la santé, au bien-être, à l’écologie et à la nature. La même année le magazine lance son podcast Hypercondriaque sur les grands débats de santé publique.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_Magazine</t>
+          <t>Santé_Magazine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Comité scientifique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le comité scientifique du mensuel Santé Magazine est composé de 12 personnalités, médecins, spécialistes et chercheurs[16]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le comité scientifique du mensuel Santé Magazine est composé de 12 personnalités, médecins, spécialistes et chercheurs:
 Dr Réginald Allouche, médecin diabétologue et ingénieur biomédical ;
 Dr François Baumann, médecin généraliste, fondateur et vice-président de la Société de formation thérapeutique du généraliste ;
 Pr Brigitte Dréno, dermatologue, CHU de Nantes, directrice de recherche en thérapie génique ;
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_Magazine</t>
+          <t>Santé_Magazine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,10 +639,12 @@
           <t>Diffusion</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Tiré à 478 297 exemplaires en France, le magazine a été vendu à 287 618 exemplaires (diffusion payée) en 2011. Pour le premier semestre 2012, Santé Magazine connaît une progression de +11 % versus 2011.
-Le magazine compte 111 145 abonnés (abonnements payés postaux d’après les résultats OJD 2011/12)[1].
+Le magazine compte 111 145 abonnés (abonnements payés postaux d’après les résultats OJD 2011/12).
 </t>
         </is>
       </c>
